--- a/FRACIAH .xlsx
+++ b/FRACIAH .xlsx
@@ -94,7 +94,7 @@
     <sheet name="APRIL 21" sheetId="89" r:id="rId85"/>
     <sheet name="Sheet10" sheetId="90" r:id="rId86"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="300"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -60876,7 +60876,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
@@ -61291,7 +61291,7 @@
       <c r="I16" s="88"/>
       <c r="J16" s="67"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
@@ -61326,7 +61326,7 @@
       </c>
       <c r="J17" s="67"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="62"/>
       <c r="B18" s="62"/>
       <c r="C18" s="23"/>
@@ -61341,7 +61341,7 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -61353,7 +61353,7 @@
       <c r="I19" s="67"/>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
       <c r="B20" s="205"/>
       <c r="C20" s="201"/>
@@ -61367,7 +61367,7 @@
       <c r="I20" s="103"/>
       <c r="J20" s="67"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="233" t="s">
         <v>149</v>
       </c>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="J21" s="67"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="114" t="s">
         <v>252</v>
       </c>
@@ -61417,7 +61417,7 @@
       <c r="I22" s="114"/>
       <c r="J22" s="67"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="114" t="s">
         <v>182</v>
       </c>
@@ -61439,7 +61439,7 @@
       <c r="I23" s="114"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="114" t="s">
         <v>323</v>
       </c>
@@ -61453,7 +61453,7 @@
       <c r="I24" s="114"/>
       <c r="J24" s="265"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="114" t="s">
         <v>290</v>
       </c>
@@ -61475,7 +61475,7 @@
       <c r="I25" s="114"/>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="114" t="s">
         <v>258</v>
       </c>
@@ -61501,7 +61501,7 @@
       <c r="I26" s="114"/>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="211" t="s">
         <v>155</v>
       </c>
@@ -61517,7 +61517,7 @@
       <c r="I27" s="114"/>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="243" t="s">
         <v>398</v>
       </c>
@@ -61538,7 +61538,7 @@
       <c r="I28" s="225"/>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="231" t="s">
         <v>399</v>
       </c>
@@ -61559,7 +61559,7 @@
       <c r="I29" s="114"/>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="231" t="s">
         <v>400</v>
       </c>
@@ -61580,7 +61580,7 @@
       <c r="I30" s="115"/>
       <c r="J30" s="67"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="231" t="s">
         <v>392</v>
       </c>
@@ -61601,7 +61601,7 @@
       <c r="I31" s="115"/>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="231" t="s">
         <v>288</v>
       </c>
@@ -61619,6 +61619,10 @@
         <v>2056</v>
       </c>
       <c r="I32" s="225"/>
+      <c r="L32" s="67">
+        <f>20500-1500</f>
+        <v>19000</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="212" t="s">
